--- a/WebClient/File/KP_TEMP.xlsx
+++ b/WebClient/File/KP_TEMP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="18315" windowHeight="9405"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,35 +50,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SystemSN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A565897</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC_16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,19 +70,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assy</t>
-  </si>
-  <si>
     <t>xxxxxx2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2VW46-02TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSY</t>
   </si>
 </sst>
 </file>
@@ -499,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -517,17 +489,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7332470</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -562,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -579,136 +551,16 @@
         <v>565897</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>565897</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3024666</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -724,14 +576,14 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="E2 B2"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="请从序列中选中" sqref="D3:D1048576">
-      <formula1>"Assy,PTH"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="请从序列中选中" sqref="D1 D2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="请从序列中选中" sqref="D1:D2"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"MB,PCBA,KIT,PPM"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C2 C1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1:C2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+      <formula1>"ASSY,PTH"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
